--- a/数学python/90度-89度.xlsx
+++ b/数学python/90度-89度.xlsx
@@ -433,9 +433,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="20" customWidth="1" min="2" max="2"/>
-    <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -478,7 +478,7 @@
         <v>0.9999999576920253</v>
       </c>
       <c r="C3" t="n">
-        <v>9999999.576920252</v>
+        <v>9999999</v>
       </c>
     </row>
     <row r="4">
@@ -491,7 +491,7 @@
         <v>0.9999998307681049</v>
       </c>
       <c r="C4" t="n">
-        <v>9999998.30768105</v>
+        <v>9999998</v>
       </c>
     </row>
     <row r="5">
@@ -504,7 +504,7 @@
         <v>0.9999996192282494</v>
       </c>
       <c r="C5" t="n">
-        <v>9999996.192282494</v>
+        <v>9999996</v>
       </c>
     </row>
     <row r="6">
@@ -517,7 +517,7 @@
         <v>0.9999993230724769</v>
       </c>
       <c r="C6" t="n">
-        <v>9999993.230724769</v>
+        <v>9999993</v>
       </c>
     </row>
     <row r="7">
@@ -530,7 +530,7 @@
         <v>0.9999989423008122</v>
       </c>
       <c r="C7" t="n">
-        <v>9999989.423008122</v>
+        <v>9999989</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         <v>0.9999984769132877</v>
       </c>
       <c r="C8" t="n">
-        <v>9999984.769132877</v>
+        <v>9999984</v>
       </c>
     </row>
     <row r="9">
@@ -556,7 +556,7 @@
         <v>0.9999979269099427</v>
       </c>
       <c r="C9" t="n">
-        <v>9999979.269099427</v>
+        <v>9999979</v>
       </c>
     </row>
     <row r="10">
@@ -569,7 +569,7 @@
         <v>0.9999972922908238</v>
       </c>
       <c r="C10" t="n">
-        <v>9999972.922908237</v>
+        <v>9999972</v>
       </c>
     </row>
     <row r="11">
@@ -582,7 +582,7 @@
         <v>0.9999965730559848</v>
       </c>
       <c r="C11" t="n">
-        <v>9999965.730559848</v>
+        <v>9999965</v>
       </c>
     </row>
     <row r="12">
@@ -595,7 +595,7 @@
         <v>0.9999957692054863</v>
       </c>
       <c r="C12" t="n">
-        <v>9999957.692054862</v>
+        <v>9999957</v>
       </c>
     </row>
     <row r="13">
@@ -608,7 +608,7 @@
         <v>0.9999948807393964</v>
       </c>
       <c r="C13" t="n">
-        <v>9999948.807393964</v>
+        <v>9999948</v>
       </c>
     </row>
     <row r="14">
@@ -621,7 +621,7 @@
         <v>0.9999939076577904</v>
       </c>
       <c r="C14" t="n">
-        <v>9999939.076577904</v>
+        <v>9999939</v>
       </c>
     </row>
     <row r="15">
@@ -634,7 +634,7 @@
         <v>0.9999928499607506</v>
       </c>
       <c r="C15" t="n">
-        <v>9999928.499607505</v>
+        <v>9999928</v>
       </c>
     </row>
     <row r="16">
@@ -647,7 +647,7 @@
         <v>0.9999917076483663</v>
       </c>
       <c r="C16" t="n">
-        <v>9999917.076483663</v>
+        <v>9999917</v>
       </c>
     </row>
     <row r="17">
@@ -660,7 +660,7 @@
         <v>0.9999904807207345</v>
       </c>
       <c r="C17" t="n">
-        <v>9999904.807207344</v>
+        <v>9999904</v>
       </c>
     </row>
     <row r="18">
@@ -673,7 +673,7 @@
         <v>0.9999891691779588</v>
       </c>
       <c r="C18" t="n">
-        <v>9999891.691779587</v>
+        <v>9999891</v>
       </c>
     </row>
     <row r="19">
@@ -686,7 +686,7 @@
         <v>0.9999877730201502</v>
       </c>
       <c r="C19" t="n">
-        <v>9999877.730201501</v>
+        <v>9999877</v>
       </c>
     </row>
     <row r="20">
@@ -699,7 +699,7 @@
         <v>0.9999862922474267</v>
       </c>
       <c r="C20" t="n">
-        <v>9999862.922474267</v>
+        <v>9999862</v>
       </c>
     </row>
     <row r="21">
@@ -712,7 +712,7 @@
         <v>0.999984726859914</v>
       </c>
       <c r="C21" t="n">
-        <v>9999847.26859914</v>
+        <v>9999847</v>
       </c>
     </row>
     <row r="22">
@@ -725,7 +725,7 @@
         <v>0.9999830768577442</v>
       </c>
       <c r="C22" t="n">
-        <v>9999830.768577442</v>
+        <v>9999830</v>
       </c>
     </row>
     <row r="23">
@@ -738,7 +738,7 @@
         <v>0.9999813422410571</v>
       </c>
       <c r="C23" t="n">
-        <v>9999813.42241057</v>
+        <v>9999813</v>
       </c>
     </row>
     <row r="24">
@@ -751,7 +751,7 @@
         <v>0.9999795230099993</v>
       </c>
       <c r="C24" t="n">
-        <v>9999795.230099993</v>
+        <v>9999795</v>
       </c>
     </row>
     <row r="25">
@@ -764,7 +764,7 @@
         <v>0.9999776191647248</v>
       </c>
       <c r="C25" t="n">
-        <v>9999776.191647248</v>
+        <v>9999776</v>
       </c>
     </row>
     <row r="26">
@@ -777,7 +777,7 @@
         <v>0.9999756307053947</v>
       </c>
       <c r="C26" t="n">
-        <v>9999756.307053948</v>
+        <v>9999756</v>
       </c>
     </row>
     <row r="27">
@@ -790,7 +790,7 @@
         <v>0.9999735576321774</v>
       </c>
       <c r="C27" t="n">
-        <v>9999735.576321775</v>
+        <v>9999735</v>
       </c>
     </row>
     <row r="28">
@@ -803,7 +803,7 @@
         <v>0.9999713999452483</v>
       </c>
       <c r="C28" t="n">
-        <v>9999713.999452483</v>
+        <v>9999713</v>
       </c>
     </row>
     <row r="29">
@@ -816,7 +816,7 @@
         <v>0.9999691576447897</v>
       </c>
       <c r="C29" t="n">
-        <v>9999691.576447897</v>
+        <v>9999691</v>
       </c>
     </row>
     <row r="30">
@@ -829,7 +829,7 @@
         <v>0.9999668307309916</v>
       </c>
       <c r="C30" t="n">
-        <v>9999668.307309916</v>
+        <v>9999668</v>
       </c>
     </row>
     <row r="31">
@@ -842,7 +842,7 @@
         <v>0.9999644192040508</v>
       </c>
       <c r="C31" t="n">
-        <v>9999644.192040509</v>
+        <v>9999644</v>
       </c>
     </row>
     <row r="32">
@@ -855,7 +855,7 @@
         <v>0.9999619230641713</v>
       </c>
       <c r="C32" t="n">
-        <v>9999619.230641713</v>
+        <v>9999619</v>
       </c>
     </row>
     <row r="33">
@@ -868,7 +868,7 @@
         <v>0.9999593423115644</v>
       </c>
       <c r="C33" t="n">
-        <v>9999593.423115643</v>
+        <v>9999593</v>
       </c>
     </row>
     <row r="34">
@@ -881,7 +881,7 @@
         <v>0.9999566769464484</v>
       </c>
       <c r="C34" t="n">
-        <v>9999566.769464483</v>
+        <v>9999566</v>
       </c>
     </row>
     <row r="35">
@@ -894,7 +894,7 @@
         <v>0.9999539269690489</v>
       </c>
       <c r="C35" t="n">
-        <v>9999539.269690489</v>
+        <v>9999539</v>
       </c>
     </row>
     <row r="36">
@@ -907,7 +907,7 @@
         <v>0.9999510923795987</v>
       </c>
       <c r="C36" t="n">
-        <v>9999510.923795987</v>
+        <v>9999510</v>
       </c>
     </row>
     <row r="37">
@@ -920,7 +920,7 @@
         <v>0.9999481731783374</v>
       </c>
       <c r="C37" t="n">
-        <v>9999481.731783373</v>
+        <v>9999481</v>
       </c>
     </row>
     <row r="38">
@@ -933,7 +933,7 @@
         <v>0.9999451693655121</v>
       </c>
       <c r="C38" t="n">
-        <v>9999451.693655122</v>
+        <v>9999451</v>
       </c>
     </row>
     <row r="39">
@@ -946,7 +946,7 @@
         <v>0.999942080941377</v>
       </c>
       <c r="C39" t="n">
-        <v>9999420.80941377</v>
+        <v>9999420</v>
       </c>
     </row>
     <row r="40">
@@ -959,7 +959,7 @@
         <v>0.9999389079061936</v>
       </c>
       <c r="C40" t="n">
-        <v>9999389.079061935</v>
+        <v>9999389</v>
       </c>
     </row>
     <row r="41">
@@ -972,7 +972,7 @@
         <v>0.99993565026023</v>
       </c>
       <c r="C41" t="n">
-        <v>9999356.5026023</v>
+        <v>9999356</v>
       </c>
     </row>
     <row r="42">
@@ -985,7 +985,7 @@
         <v>0.9999323080037622</v>
       </c>
       <c r="C42" t="n">
-        <v>9999323.080037622</v>
+        <v>9999323</v>
       </c>
     </row>
     <row r="43">
@@ -998,7 +998,7 @@
         <v>0.9999288811370729</v>
       </c>
       <c r="C43" t="n">
-        <v>9999288.811370729</v>
+        <v>9999288</v>
       </c>
     </row>
     <row r="44">
@@ -1011,7 +1011,7 @@
         <v>0.999925369660452</v>
       </c>
       <c r="C44" t="n">
-        <v>9999253.69660452</v>
+        <v>9999253</v>
       </c>
     </row>
     <row r="45">
@@ -1024,7 +1024,7 @@
         <v>0.9999217735741966</v>
       </c>
       <c r="C45" t="n">
-        <v>9999217.735741967</v>
+        <v>9999217</v>
       </c>
     </row>
     <row r="46">
@@ -1037,7 +1037,7 @@
         <v>0.9999180928786112</v>
       </c>
       <c r="C46" t="n">
-        <v>9999180.928786112</v>
+        <v>9999180</v>
       </c>
     </row>
     <row r="47">
@@ -1050,7 +1050,7 @@
         <v>0.999914327574007</v>
       </c>
       <c r="C47" t="n">
-        <v>9999143.27574007</v>
+        <v>9999143</v>
       </c>
     </row>
     <row r="48">
@@ -1063,7 +1063,7 @@
         <v>0.9999104776607027</v>
       </c>
       <c r="C48" t="n">
-        <v>9999104.776607027</v>
+        <v>9999104</v>
       </c>
     </row>
     <row r="49">
@@ -1076,7 +1076,7 @@
         <v>0.9999065431390242</v>
       </c>
       <c r="C49" t="n">
-        <v>9999065.431390241</v>
+        <v>9999065</v>
       </c>
     </row>
     <row r="50">
@@ -1089,7 +1089,7 @@
         <v>0.9999025240093042</v>
       </c>
       <c r="C50" t="n">
-        <v>9999025.240093043</v>
+        <v>9999025</v>
       </c>
     </row>
     <row r="51">
@@ -1102,7 +1102,7 @@
         <v>0.9998984202718829</v>
       </c>
       <c r="C51" t="n">
-        <v>9998984.20271883</v>
+        <v>9998984</v>
       </c>
     </row>
     <row r="52">
@@ -1115,7 +1115,7 @@
         <v>0.9998942319271075</v>
       </c>
       <c r="C52" t="n">
-        <v>9998942.319271075</v>
+        <v>9998942</v>
       </c>
     </row>
     <row r="53">
@@ -1128,7 +1128,7 @@
         <v>0.9998899589753325</v>
       </c>
       <c r="C53" t="n">
-        <v>9998899.589753324</v>
+        <v>9998899</v>
       </c>
     </row>
     <row r="54">
@@ -1141,7 +1141,7 @@
         <v>0.9998856014169193</v>
       </c>
       <c r="C54" t="n">
-        <v>9998856.014169194</v>
+        <v>9998856</v>
       </c>
     </row>
     <row r="55">
@@ -1154,7 +1154,7 @@
         <v>0.9998811592522368</v>
       </c>
       <c r="C55" t="n">
-        <v>9998811.592522368</v>
+        <v>9998811</v>
       </c>
     </row>
     <row r="56">
@@ -1167,7 +1167,7 @@
         <v>0.9998766324816606</v>
       </c>
       <c r="C56" t="n">
-        <v>9998766.324816605</v>
+        <v>9998766</v>
       </c>
     </row>
     <row r="57">
@@ -1180,7 +1180,7 @@
         <v>0.999872021105574</v>
       </c>
       <c r="C57" t="n">
-        <v>9998720.211055741</v>
+        <v>9998720</v>
       </c>
     </row>
     <row r="58">
@@ -1193,7 +1193,7 @@
         <v>0.9998673251243672</v>
       </c>
       <c r="C58" t="n">
-        <v>9998673.251243671</v>
+        <v>9998673</v>
       </c>
     </row>
     <row r="59">
@@ -1206,7 +1206,7 @@
         <v>0.9998625445384374</v>
       </c>
       <c r="C59" t="n">
-        <v>9998625.445384374</v>
+        <v>9998625</v>
       </c>
     </row>
     <row r="60">
@@ -1219,7 +1219,7 @@
         <v>0.9998576793481891</v>
       </c>
       <c r="C60" t="n">
-        <v>9998576.793481892</v>
+        <v>9998576</v>
       </c>
     </row>
     <row r="61">
@@ -1232,7 +1232,7 @@
         <v>0.9998527295540341</v>
       </c>
       <c r="C61" t="n">
-        <v>9998527.295540342</v>
+        <v>9998527</v>
       </c>
     </row>
   </sheetData>
